--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,184 +46,172 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
-    <t>tiny</t>
+    <t>waste</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>missing</t>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>okay</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>plastic</t>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>thought</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>cheap</t>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>less</t>
   </si>
   <si>
     <t>paint</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>less</t>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>back</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>would</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>back</t>
+    <t>look</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>pieces</t>
   </si>
   <si>
     <t>expected</t>
   </si>
   <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>make</t>
   </si>
   <si>
     <t>made</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
-    <t>still</t>
+    <t>two</t>
   </si>
   <si>
     <t>buy</t>
@@ -232,43 +220,43 @@
     <t>much</t>
   </si>
   <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>get</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>got</t>
+    <t>time</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>favorite</t>
   </si>
   <si>
+    <t>classic</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>classic</t>
+    <t>thank</t>
   </si>
   <si>
     <t>great</t>
@@ -277,52 +265,52 @@
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
-    <t>birthday</t>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>book</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>fun</t>
+    <t>game</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>game</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
     <t>play</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>positive</t>
@@ -683,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -691,10 +679,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -752,13 +740,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -770,19 +758,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -794,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -802,13 +790,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -820,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K4">
-        <v>0.8153846153846154</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -844,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -852,13 +840,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7815533980582524</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C5">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -870,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K5">
         <v>0.8148148148148148</v>
@@ -923,16 +911,16 @@
         <v>43</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K6">
-        <v>0.7419354838709677</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="L6">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M6">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -944,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -952,13 +940,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.734375</v>
+        <v>0.7669902912621359</v>
       </c>
       <c r="C7">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="D7">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -970,31 +958,31 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>48</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7">
+        <v>0.6792452830188679</v>
+      </c>
+      <c r="L7">
+        <v>36</v>
+      </c>
+      <c r="M7">
+        <v>36</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>17</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7">
-        <v>0.6875</v>
-      </c>
-      <c r="L7">
-        <v>44</v>
-      </c>
-      <c r="M7">
-        <v>44</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1002,13 +990,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1020,19 +1008,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K8">
-        <v>0.6415094339622641</v>
+        <v>0.625</v>
       </c>
       <c r="L8">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1044,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1052,13 +1040,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7105263157894737</v>
+        <v>0.7162162162162162</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1070,19 +1058,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K9">
-        <v>0.4339622641509434</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="L9">
-        <v>529</v>
+        <v>34</v>
       </c>
       <c r="M9">
-        <v>530</v>
+        <v>34</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1091,10 +1079,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>690</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1102,13 +1090,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.704225352112676</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1120,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K10">
-        <v>0.4203730272596843</v>
+        <v>0.4421657095980312</v>
       </c>
       <c r="L10">
-        <v>293</v>
+        <v>539</v>
       </c>
       <c r="M10">
-        <v>293</v>
+        <v>540</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1141,10 +1129,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>404</v>
+        <v>680</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1152,13 +1140,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6891891891891891</v>
+        <v>0.6722689075630253</v>
       </c>
       <c r="C11">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="D11">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1170,19 +1158,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K11">
-        <v>0.4202898550724637</v>
+        <v>0.4088952654232424</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1194,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>40</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1202,13 +1190,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6444444444444445</v>
+        <v>0.625</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1220,19 +1208,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K12">
-        <v>0.3838174273858921</v>
+        <v>0.3941908713692946</v>
       </c>
       <c r="L12">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="M12">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1244,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1252,13 +1240,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6181818181818182</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C13">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1270,19 +1258,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K13">
-        <v>0.3416666666666667</v>
+        <v>0.3132530120481928</v>
       </c>
       <c r="L13">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="M13">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1294,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>79</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1302,13 +1290,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6111111111111112</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C14">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1320,19 +1308,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K14">
-        <v>0.290519877675841</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="L14">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="M14">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1344,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>232</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1352,37 +1340,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5966386554621849</v>
+        <v>0.5436046511627907</v>
       </c>
       <c r="C15">
-        <v>71</v>
+        <v>187</v>
       </c>
       <c r="D15">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K15">
-        <v>0.2891566265060241</v>
+        <v>0.2844036697247707</v>
       </c>
       <c r="L15">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1394,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>118</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1402,13 +1390,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5797101449275363</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C16">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1420,19 +1408,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K16">
-        <v>0.2433862433862434</v>
+        <v>0.2751322751322751</v>
       </c>
       <c r="L16">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M16">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1444,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1452,13 +1440,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5783132530120482</v>
+        <v>0.5196850393700787</v>
       </c>
       <c r="C17">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D17">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1470,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K17">
-        <v>0.203125</v>
+        <v>0.234375</v>
       </c>
       <c r="L17">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1494,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1502,13 +1490,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5625</v>
+        <v>0.5157894736842106</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1520,31 +1508,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K18">
-        <v>0.1965811965811966</v>
+        <v>0.1631578947368421</v>
       </c>
       <c r="L18">
-        <v>23</v>
+        <v>186</v>
       </c>
       <c r="M18">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>94</v>
+        <v>954</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1552,13 +1540,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5476190476190477</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1570,19 +1558,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K19">
-        <v>0.1888111888111888</v>
+        <v>0.1623376623376623</v>
       </c>
       <c r="L19">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1594,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1602,13 +1590,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5473684210526316</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="C20">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1623,16 +1611,16 @@
         <v>43</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K20">
-        <v>0.1720430107526882</v>
+        <v>0.1608391608391608</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1644,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1652,13 +1640,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5196850393700787</v>
+        <v>0.4739336492890995</v>
       </c>
       <c r="C21">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="D21">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1670,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K21">
-        <v>0.1566265060240964</v>
+        <v>0.1485943775100401</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1694,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1702,13 +1690,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0.4257425742574257</v>
       </c>
       <c r="C22">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D22">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1720,31 +1708,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K22">
-        <v>0.1559471365638767</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="L22">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="N22">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>958</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1752,13 +1740,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.46875</v>
+        <v>0.4140625</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1770,31 +1758,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K23">
-        <v>0.1089385474860335</v>
+        <v>0.1000649772579597</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="M23">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="N23">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O23">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>319</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1802,13 +1790,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.462962962962963</v>
+        <v>0.4</v>
       </c>
       <c r="C24">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1820,31 +1808,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K24">
-        <v>0.1071428571428571</v>
+        <v>0.09749303621169916</v>
       </c>
       <c r="L24">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="N24">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1375</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1852,49 +1840,49 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4549763033175355</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C25">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>38</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D25">
-        <v>96</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>115</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="K25">
-        <v>0.08310991957104558</v>
+        <v>0.07008086253369272</v>
       </c>
       <c r="L25">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N25">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="O25">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1902,13 +1890,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4444444444444444</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1920,31 +1908,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K26">
-        <v>0.05080213903743316</v>
+        <v>0.0564516129032258</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M26">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N26">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="O26">
-        <v>0.09999999999999998</v>
+        <v>0.16</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>710</v>
+        <v>702</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1952,13 +1940,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4126984126984127</v>
+        <v>0.335</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="D27">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1970,7 +1958,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>37</v>
+        <v>133</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K27">
+        <v>0.03443328550932568</v>
+      </c>
+      <c r="L27">
+        <v>24</v>
+      </c>
+      <c r="M27">
+        <v>32</v>
+      </c>
+      <c r="N27">
+        <v>0.75</v>
+      </c>
+      <c r="O27">
+        <v>0.25</v>
+      </c>
+      <c r="P27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>673</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1978,13 +1990,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C28">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D28">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1996,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2004,13 +2016,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3931623931623932</v>
+        <v>0.2959183673469388</v>
       </c>
       <c r="C29">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D29">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2022,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2030,13 +2042,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3910891089108911</v>
+        <v>0.2783505154639175</v>
       </c>
       <c r="C30">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D30">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2048,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>123</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2056,13 +2068,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3770491803278688</v>
+        <v>0.2783505154639175</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D31">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2074,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>38</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2082,13 +2094,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3132911392405063</v>
+        <v>0.2753164556962026</v>
       </c>
       <c r="C32">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D32">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2100,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2108,25 +2120,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.31</v>
+        <v>0.274888558692422</v>
       </c>
       <c r="C33">
-        <v>62</v>
+        <v>185</v>
       </c>
       <c r="D33">
-        <v>62</v>
+        <v>186</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>138</v>
+        <v>488</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2134,13 +2146,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3092783505154639</v>
+        <v>0.2747252747252747</v>
       </c>
       <c r="C34">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D34">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2152,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>134</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2160,25 +2172,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3061224489795918</v>
+        <v>0.2716763005780347</v>
       </c>
       <c r="C35">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D35">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>68</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2186,25 +2198,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3043478260869565</v>
+        <v>0.2690909090909091</v>
       </c>
       <c r="C36">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D36">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2212,13 +2224,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.303370786516854</v>
+        <v>0.2689873417721519</v>
       </c>
       <c r="C37">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="D37">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2230,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>62</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2238,25 +2250,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2838038632986627</v>
+        <v>0.2616822429906542</v>
       </c>
       <c r="C38">
-        <v>191</v>
+        <v>56</v>
       </c>
       <c r="D38">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="E38">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>482</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2264,13 +2276,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.25</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="C39">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D39">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2282,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2290,25 +2302,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2476190476190476</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C40">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="D40">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="E40">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>237</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2316,13 +2328,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2417582417582418</v>
+        <v>0.2457627118644068</v>
       </c>
       <c r="C41">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D41">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2334,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2342,25 +2354,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.239193083573487</v>
+        <v>0.2444933920704846</v>
       </c>
       <c r="C42">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="D42">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="E42">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>264</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2368,25 +2380,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2367256637168142</v>
+        <v>0.2363112391930836</v>
       </c>
       <c r="C43">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="D43">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="E43">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F43">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>345</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2394,25 +2406,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2291666666666667</v>
+        <v>0.2314814814814815</v>
       </c>
       <c r="C44">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D44">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E44">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2420,13 +2432,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2268041237113402</v>
+        <v>0.2265625</v>
       </c>
       <c r="C45">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D45">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2438,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2446,13 +2458,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2214285714285714</v>
+        <v>0.2229299363057325</v>
       </c>
       <c r="C46">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D46">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2464,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2472,25 +2484,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.21875</v>
+        <v>0.2053231939163498</v>
       </c>
       <c r="C47">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D47">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2498,13 +2510,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.21875</v>
+        <v>0.1832460732984293</v>
       </c>
       <c r="C48">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D48">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2516,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>100</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2524,13 +2536,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2038216560509554</v>
+        <v>0.183206106870229</v>
       </c>
       <c r="C49">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D49">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2542,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2550,25 +2562,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2021857923497268</v>
+        <v>0.1758241758241758</v>
       </c>
       <c r="C50">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D50">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2576,13 +2588,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C51">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D51">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2594,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2602,25 +2614,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1962616822429906</v>
+        <v>0.1531531531531531</v>
       </c>
       <c r="C52">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D52">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>172</v>
+        <v>376</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2628,25 +2640,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1879699248120301</v>
+        <v>0.1529411764705882</v>
       </c>
       <c r="C53">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D53">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E53">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F53">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>216</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2654,25 +2666,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1758241758241758</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="C54">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D54">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="E54">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="F54">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>300</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2680,25 +2692,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1707317073170732</v>
+        <v>0.1397260273972603</v>
       </c>
       <c r="C55">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D55">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E55">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>204</v>
+        <v>314</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2706,25 +2718,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.162303664921466</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="C56">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D56">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2732,25 +2744,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1366459627329193</v>
+        <v>0.1369426751592357</v>
       </c>
       <c r="C57">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D57">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>139</v>
+        <v>271</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2758,25 +2770,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1311475409836066</v>
+        <v>0.1355371900826446</v>
       </c>
       <c r="C58">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="D58">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="E58">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="F58">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>159</v>
+        <v>523</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2784,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1255605381165919</v>
+        <v>0.1263537906137184</v>
       </c>
       <c r="C59">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D59">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="E59">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="F59">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>390</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2810,25 +2822,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1210191082802548</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="C60">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D60">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E60">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>276</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2836,25 +2848,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1182795698924731</v>
+        <v>0.1045197740112994</v>
       </c>
       <c r="C61">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D61">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E61">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="F61">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>164</v>
+        <v>317</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2862,25 +2874,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1171617161716172</v>
+        <v>0.09069767441860466</v>
       </c>
       <c r="C62">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D62">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="E62">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="F62">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>535</v>
+        <v>391</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2888,25 +2900,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1163636363636364</v>
+        <v>0.080370942812983</v>
       </c>
       <c r="C63">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D63">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="E63">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F63">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>243</v>
+        <v>595</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2914,25 +2926,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1059907834101382</v>
+        <v>0.07476635514018691</v>
       </c>
       <c r="C64">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D64">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E64">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F64">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>194</v>
+        <v>396</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2940,25 +2952,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1042253521126761</v>
+        <v>0.07069408740359898</v>
       </c>
       <c r="C65">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D65">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>318</v>
+        <v>723</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2966,25 +2978,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.09624413145539906</v>
+        <v>0.05909090909090909</v>
       </c>
       <c r="C66">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D66">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E66">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="F66">
-        <v>0.84</v>
+        <v>0.79</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>385</v>
+        <v>414</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2992,155 +3004,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.09579439252336448</v>
+        <v>0.05220883534136546</v>
       </c>
       <c r="C67">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D67">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E67">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="F67">
-        <v>0.98</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68">
-        <v>0.09287531806615776</v>
-      </c>
-      <c r="C68">
-        <v>73</v>
-      </c>
-      <c r="D68">
-        <v>81</v>
-      </c>
-      <c r="E68">
-        <v>0.1</v>
-      </c>
-      <c r="F68">
-        <v>0.9</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69">
-        <v>0.07430340557275542</v>
-      </c>
-      <c r="C69">
-        <v>48</v>
-      </c>
-      <c r="D69">
-        <v>57</v>
-      </c>
-      <c r="E69">
-        <v>0.16</v>
-      </c>
-      <c r="F69">
-        <v>0.84</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70">
-        <v>0.07407407407407407</v>
-      </c>
-      <c r="C70">
-        <v>26</v>
-      </c>
-      <c r="D70">
-        <v>26</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71">
-        <v>0.066</v>
-      </c>
-      <c r="C71">
-        <v>33</v>
-      </c>
-      <c r="D71">
-        <v>37</v>
-      </c>
-      <c r="E71">
-        <v>0.11</v>
-      </c>
-      <c r="F71">
-        <v>0.89</v>
-      </c>
-      <c r="G71" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72">
-        <v>0.06575963718820861</v>
-      </c>
-      <c r="C72">
-        <v>29</v>
-      </c>
-      <c r="D72">
-        <v>35</v>
-      </c>
-      <c r="E72">
-        <v>0.17</v>
-      </c>
-      <c r="F72">
-        <v>0.83</v>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72">
-        <v>412</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
